--- a/data/trans_bre/IP1001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,64</t>
+          <t>-3,45; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 4,69</t>
+          <t>-6,62; 4,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 12,09</t>
+          <t>-0,09; 12,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 2,68</t>
+          <t>-8,46; 2,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,38; 591,32</t>
+          <t>-75,38; 614,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,14; 348,14</t>
+          <t>-87,22; 317,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,99; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,24</t>
+          <t>-1,29; 1,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,47</t>
+          <t>-1,75; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,88</t>
+          <t>-2,36; 0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,62</t>
+          <t>-3,5; 0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 152,79</t>
+          <t>-46,51; 120,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,05; 92,76</t>
+          <t>-59,9; 88,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 48,14</t>
+          <t>-62,9; 56,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,39; 29,75</t>
+          <t>-73,17; 21,11</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,74</t>
+          <t>-3,47; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; -0,88</t>
+          <t>-5,59; -0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,49</t>
+          <t>-3,83; 0,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,76</t>
+          <t>-4,52; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 138,85</t>
+          <t>-65,61; 179,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -17,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 100,06</t>
+          <t>-93,97; 89,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,08; 347,15</t>
+          <t>-91,42; 299,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,72</t>
+          <t>-1,35; 1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,58</t>
+          <t>-2,07; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,0</t>
+          <t>-1,67; 0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,18</t>
+          <t>-2,88; 0,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 88,89</t>
+          <t>-39,46; 78,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 31,81</t>
+          <t>-60,43; 39,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 53,04</t>
+          <t>-51,5; 45,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,91; 11,2</t>
+          <t>-66,38; 16,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1001-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1001-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>269,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,48%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 5,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 4,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 12,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 2,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,73; 499,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,11; 475,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>269,87%</t>
+          <t>-22,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-62,32%</t>
+          <t>-40,0%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,73</t>
+          <t>-1,3; 1,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,53</t>
+          <t>-1,72; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 12,86</t>
+          <t>-2,26; 1,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 2,18</t>
+          <t>-3,32; 0,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,38; 614,3</t>
+          <t>-43,86; 124,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,22; 317,6</t>
+          <t>-56,35; 101,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,99; —</t>
+          <t>-62,58; 64,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,88; 32,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,45%</t>
+          <t>-91,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-60,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-38,63%</t>
+          <t>-32,9%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,9</t>
+          <t>-3,61; 3,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,41</t>
+          <t>-5,65; -0,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,97</t>
+          <t>-4,15; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,48</t>
+          <t>-8,2; 2,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 120,29</t>
+          <t>-68,98; 174,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 88,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 56,64</t>
+          <t>-100,0; 59,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 21,11</t>
+          <t>-100,0; 260,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-91,11%</t>
+          <t>-28,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-60,32%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>-40,44%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,88</t>
+          <t>-1,12; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -0,91</t>
+          <t>-2,01; 0,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,5</t>
+          <t>-1,66; 1,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,43</t>
+          <t>-3,46; 0,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 179,84</t>
+          <t>-32,97; 78,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,54</t>
+          <t>-59,55; 27,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-93,97; 89,06</t>
+          <t>-50,94; 51,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-91,42; 299,72</t>
+          <t>-68,96; 8,56</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-28,83%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-13,43%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-35,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 1,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 0,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,88</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 0,32</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-39,46; 78,71</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-60,43; 39,4</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-51,5; 45,73</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-66,38; 16,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
